--- a/batch_update_file_preparation/institute_url_set.xlsx
+++ b/batch_update_file_preparation/institute_url_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\British Library\bl github group\bl_github_clones\idp-data-issues\batch_update_file_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B0EB9-CD8F-44F2-BB8F-E49DCAA24E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537EF0CC-D413-42D1-A031-167428338A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8316" yWindow="5760" windowWidth="17328" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="4824" windowWidth="12936" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="institue_url_changes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Institute id</t>
   </si>
@@ -143,18 +143,12 @@
     <t>MG</t>
   </si>
   <si>
-    <t>6, place d'Iéna &lt;br&gt;75016 Paris &lt;br&gt;France &lt;br&gt;+33 (0)1 56 52 53 00</t>
-  </si>
-  <si>
     <t>MIHO</t>
   </si>
   <si>
     <t>NLC</t>
   </si>
   <si>
-    <t>33 Zhongguancun Nandajie&lt;br&gt; Haidian district&lt;br&gt; Beijing 100081&lt;br&gt; People's Republic of China&lt;br&gt; Tel: +86 (0)10 8854 4114&lt;br&gt; &lt;a href="http://www.nlc.gov.cn/GB/channel1/index.html" target="_blank"&gt;website&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>NMI</t>
   </si>
   <si>
@@ -242,129 +236,6 @@
     <t>Institute URL OLD VALUE</t>
   </si>
   <si>
-    <t>Institute URL NEW VALUE</t>
-  </si>
-  <si>
-    <t>www.smb.museum</t>
-  </si>
-  <si>
-    <t>http://lib.ihp.sinica.edu.tw</t>
-  </si>
-  <si>
-    <t>http://www.bl.uk</t>
-  </si>
-  <si>
-    <t>http://www.britishmuseum.org</t>
-  </si>
-  <si>
-    <t>http://www.cbl.ie</t>
-  </si>
-  <si>
-    <t>http://www.bnf.fr</t>
-  </si>
-  <si>
-    <t>http://www.asia.si.edu</t>
-  </si>
-  <si>
-    <t>http://www.hku.hk/hkumag</t>
-  </si>
-  <si>
-    <t>http://www.nlc.gov.cn/GB/channel1/index.html</t>
-  </si>
-  <si>
-    <t>http://www.nri.org.uk</t>
-  </si>
-  <si>
-    <t>http://eastasianlib.princeton.edu/index.htm</t>
-  </si>
-  <si>
-    <t>http://www.themorgan.org</t>
-  </si>
-  <si>
-    <t>www.princetonartmuseum.org</t>
-  </si>
-  <si>
-    <t>http://opac.lib.ryukoku.ac.jp/web/index.htm</t>
-  </si>
-  <si>
-    <t>http://www.samfogg.com</t>
-  </si>
-  <si>
-    <t>http://www.vam.ac.uk</t>
-  </si>
-  <si>
-    <t>http://www.kb.dk</t>
-  </si>
-  <si>
-    <t>http://www.library.ucla.edu</t>
-  </si>
-  <si>
-    <t>https://www.artic.edu</t>
-  </si>
-  <si>
-    <t>https://www.bbaw.de</t>
-  </si>
-  <si>
-    <t>https://www.cincinnatiartmuseum.org</t>
-  </si>
-  <si>
-    <t>https://www.fieldmuseum.org</t>
-  </si>
-  <si>
-    <t>http://en.dha.ac.cn</t>
-  </si>
-  <si>
-    <t>https://dia.org</t>
-  </si>
-  <si>
-    <t>http://www.gansumuseum.com</t>
-  </si>
-  <si>
-    <t>http://www.orientalstudies.ru</t>
-  </si>
-  <si>
-    <t>https://konyvtar.mta.hu</t>
-  </si>
-  <si>
-    <t>https://www.lingyinsi.org</t>
-  </si>
-  <si>
-    <t>https://www.mfa.org</t>
-  </si>
-  <si>
-    <t>https://www.middlebury.edu/museum</t>
-  </si>
-  <si>
-    <t>https://www.guimet.fr</t>
-  </si>
-  <si>
-    <t>https://www.miho.jp</t>
-  </si>
-  <si>
-    <t>https://nationalmuseumindia.gov.in</t>
-  </si>
-  <si>
-    <t>https://www.bodleian.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>https://philamuseum.org</t>
-  </si>
-  <si>
-    <t>https://riks.korea.ac.kr</t>
-  </si>
-  <si>
-    <t>https://www.hermitagemuseum.org</t>
-  </si>
-  <si>
-    <t>https://www.etnografiskamuseet.se</t>
-  </si>
-  <si>
-    <t>https://www.tjbwg.com</t>
-  </si>
-  <si>
-    <t>https://www.ncl.edu.tw</t>
-  </si>
-  <si>
     <t>institute_url_set.xlsx</t>
   </si>
   <si>
@@ -372,6 +243,139 @@
   </si>
   <si>
     <t>We should save the remainder of the contact info separately in a contact sheet (outside of 4D) - for now held in the REVERSED TSV (and here)</t>
+  </si>
+  <si>
+    <t>Institute URL NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.artic.edu"&gt;https://www.artic.edu&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.smb.museum"&gt;http://www.smb.museum&lt;/a&gt;  Dr. Lilla Russell-Smith, Kuratorin für Zentralasiatische Kunst, Museum für Asiatische Kunst, Kunstsammlung Süd-, Südost- und Zentralasien, Staatliche Museen zu Berlin - Preußischer Kulturbesitz, Takustr 40, 14195 Berlin; Fon: +49 30 8301-364; Fax: +49 30 8301-502; l.russell-smith@smb.spk-berlin.de; www.smb.museum</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://lib.ihp.sinica.edu.tw"&gt;http://lib.ihp.sinica.edu.tw&lt;/a&gt;  Fu Ssu-nien Library&lt;br&gt; Institute of History and Philology&lt;br&gt; Academia Sinica&lt;br&gt; Nan-Kang Taipei 11529&lt;br&gt; Taiwan&lt;br&gt; &lt;a href="http://lib.ihp.sinica.edu.tw/" target="_blank"&gt;Library website&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://www.bbaw.de"&gt;https://www.bbaw.de&lt;/a&gt;  Depositum der BERLIN-BRANDENBURGISCHEN AKADEMIE DER WISSENSCHAFTEN in der STAATSBIBLIOTHEK ZU BERLIN - Preussischer Kulturbesitz, Orientabteilung &lt;p&gt;Potsdamer Strasse 33 10785 Berlin; Briefe: 10772 BERLIN; Pakete: Tiergarten Potsdamer Strasse 33 10785 Berlin; Telefon: +049-30-266-435806 oder 266-0; Telefax: +49-30-266-439956; E-mail: orientabt@sbb.spk-berlin.de&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.bl.uk"&gt;http://www.bl.uk&lt;/a&gt;  96 Euston Road&lt;br&gt; London NW1 2DB, UK&lt;br&gt; tel: +44 (0)20 7412 7000&lt;br&gt; &lt;a href="http://www.bl.uk" target="_blank"&gt;website&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.britishmuseum.org"&gt;http://www.britishmuseum.org&lt;/a&gt;  Great Russell Street&lt;br&gt;London WC1B 3DG, UK&lt;br&gt; tel: +44 (0)20 7323 8000&lt;br&gt;&lt;a href="http://www.britishmuseum.org" target="_blank"&gt;website&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.bnf.fr"&gt;http://www.bnf.fr&lt;/a&gt;  58, rue de Richelieu &lt;br&gt;75002 Paris &lt;br&gt;France &lt;br&gt;+33 (0)1 53 79 59 59 &lt;br&gt;&lt;a href="http://www.bnf.fr"&gt;http://www.bnf.fr&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.cincinnatiartmuseum.org"&gt;https://www.cincinnatiartmuseum.org&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.cbl.ie"&gt;http://www.cbl.ie&lt;/a&gt;  Dublin Castle Dublin 2, Ireland&lt;BR&gt;&lt;a href="http://www.cbl.ie" target="_blank"&gt;website&lt;/a&gt;&lt;br&gt;Director: &lt;a href="mailto:mryan@cbl.ie"&gt;Dr Michael Ryan&lt;/a&gt;&lt;br&gt;Curator of the East Asian Collections: &lt;a href="mailto:smccausland@cbl.ie"&gt;Shane MacCausland&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.fieldmuseum.org"&gt;https://www.fieldmuseum.org&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="http://en.dha.ac.cn"&gt;http://en.dha.ac.cn&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://dia.org"&gt;https://dia.org&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.asia.si.edu"&gt;http://www.asia.si.edu&lt;/a&gt;  Jefferson Drive at 12th St. SW&lt;br&gt; Washington DC 20650-0707 USA&lt;br&gt; &lt;a href="http://www.asia.si.edu" target="_blank"&gt;Institute website&lt;/a&gt;&lt;br&gt; &lt;a href="mailto:joseph.chang@asia.si.edu"&gt;Joseph Chang&lt;/a&gt;&lt;br&gt; &lt;a href="mailto:Stephen.Allee@asia.si.edu"&gt;Stephen Allee&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="http://www.gansumuseum.com"&gt;http://www.gansumuseum.com&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.hku.hk/hkumag"&gt;http://www.hku.hk/hkumag&lt;/a&gt;  University of Hong Kong &lt;br&gt;94 Bonham Road &lt;br&gt;Pokfulam &lt;br&gt;Hong Kong &lt;br&gt;&lt;a href="http://www.hku.hk/hkumag" target="_blank"&gt;www.hku.hk/hkumag&lt;/a&gt; email: &lt;a href="mailto:ayfwonga@hkucc.hku.hk"&gt;Anita WONG Yin-fong&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="http://www.orientalstudies.ru"&gt;http://www.orientalstudies.ru&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.kb.dk"&gt;http://www.kb.dk&lt;/a&gt;  Søren Kierkegaards Plads 1 +&lt;br&gt;København K, Denmark. &lt;br&gt;Tel: +45 3347 4887 &lt;br&gt;Fax: +45 3393 2218 &lt;br&gt;Email: blp@kb.dk &lt;br&gt;Website: &lt;a href="http://www.kb.dk"&gt;http://www.kb.dk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://konyvtar.mta.hu"&gt;https://konyvtar.mta.hu&lt;/a&gt;  &lt;a href="mailto:keleti@konyvtar.mta.hu"&gt;Agnes Kelecsényi&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href=""&gt;&lt;/a&gt;  Private collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.lingyinsi.org"&gt;https://www.lingyinsi.org&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.middlebury.edu/museum"&gt;https://www.middlebury.edu/museum&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.mfa.org"&gt;https://www.mfa.org&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://www.guimet.fr"&gt;https://www.guimet.fr&lt;/a&gt;  6, place d"Iéna &lt;br&gt;75016 Paris &lt;br&gt;France &lt;br&gt;+33 (0)1 56 52 53 00</t>
+  </si>
+  <si>
+    <t>6, place d"Iéna &lt;br&gt;75016 Paris &lt;br&gt;France &lt;br&gt;+33 (0)1 56 52 53 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.miho.jp"&gt;https://www.miho.jp&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.nlc.gov.cn/GB/channel1/index.html"&gt;http://www.nlc.gov.cn/GB/channel1/index.html&lt;/a&gt;  33 Zhongguancun Nandajie&lt;br&gt; Haidian district&lt;br&gt; Beijing 100081&lt;br&gt; People"s Republic of China&lt;br&gt; Tel: +86 (0)10 8854 4114&lt;br&gt; &lt;a href="http://www.nlc.gov.cn/GB/channel1/index.html" target="_blank"&gt;website&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>33 Zhongguancun Nandajie&lt;br&gt; Haidian district&lt;br&gt; Beijing 100081&lt;br&gt; People"s Republic of China&lt;br&gt; Tel: +86 (0)10 8854 4114&lt;br&gt; &lt;a href="http://www.nlc.gov.cn/GB/channel1/index.html" target="_blank"&gt;website&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://nationalmuseumindia.gov.in"&gt;https://nationalmuseumindia.gov.in&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.nri.org.uk"&gt;http://www.nri.org.uk&lt;/a&gt;  Needham Research Institute &lt;br&gt;8 Sylvester Road &lt;br&gt;Cambridge CB3 9AF &lt;br&gt;&lt;a href="http://www.nri.org.uk" target="_blank"&gt;www.nri.org.uk &lt;br&gt;+44 (0) 1223 311545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.bodleian.ox.ac.uk"&gt;https://www.bodleian.ox.ac.uk&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://eastasianlib.princeton.edu/index.htm"&gt;http://eastasianlib.princeton.edu/index.htm&lt;/a&gt;  &lt;br&gt;East Asian Library &lt;br&gt;33 Frist Campus Center &lt;br&gt;Room 317 &lt;br&gt;Princeton University &lt;br&gt;Princeton, NJ 08544 &lt;br&gt;USA &lt;br&gt;Tel: +1 (609) 258-3182 &lt;br&gt;Fax: +1(609) 258-4573 &lt;br&gt;&lt;a href="http://http://eastasianlib.princeton.edu/index.htm" target="_blank"&gt;http://eastasianlib.princeton.edu/index.htm&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.themorgan.org"&gt;http://www.themorgan.org&lt;/a&gt;  225 Madison Avenue&lt;br&gt;New York&lt;br&gt;NY 10016-2305 USA&lt;br&gt;Website: &lt;a href="http://www.themorgan.org" target="_blank"&gt;www.themorgan.org&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://philamuseum.org"&gt;https://philamuseum.org&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="www.princetonartmuseum.org"&gt;www.princetonartmuseum.org&lt;/a&gt;  See &lt;a href="www.princetonartmuseum.org/" target="_blank"&gt;the Museum website&lt;/a&gt; for details.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://riks.korea.ac.kr"&gt;https://riks.korea.ac.kr&lt;/a&gt;  Korea University, Anam-dong Seongbuk-gu, Seoul&lt;br&gt; 136-701, KOREA&lt;br&gt; Phone: +82-2-3290-2494&lt;br&gt; Fax:+82-2-3290-2596</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://opac.lib.ryukoku.ac.jp/web/index.htm"&gt;http://opac.lib.ryukoku.ac.jp/web/index.htm&lt;/a&gt;  125-1 Daiku-cho, Shichijo-dori Omiya Higashi-iru,&lt;br&gt; Shimogyo-ku, Kyoto, JAPAN&lt;br&gt; 600-8268&lt;br&gt; tel: +81-75-343-3318&lt;br&gt; fax: +81-75-344-0345&lt;br&gt; &lt;a href="http://opac.lib.ryukoku.ac.jp/web/index.htm"&gt;website&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.samfogg.com"&gt;http://www.samfogg.com&lt;/a&gt;  15D Clifford Street, London W1S 4JZ &lt;a href="http://www.samfogg.com" target="_blank"&gt;website&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.hermitagemuseum.org"&gt;https://www.hermitagemuseum.org&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.etnografiskamuseet.se"&gt;https://www.etnografiskamuseet.se&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a target="_blank" href="https://www.tjbwg.com"&gt;https://www.tjbwg.com&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="https://www.ncl.edu.tw"&gt;https://www.ncl.edu.tw&lt;/a&gt;  &lt;a href="mailto:hmyu@ncl.edu.tw"&gt;Hsiao-ming Yu,&lt;/a&gt; Director of Special Collections Division.</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.library.ucla.edu"&gt;http://www.library.ucla.edu&lt;/a&gt;  Box 951575&lt;br&gt; Los Angeles, CA 90095-1575 USA&lt;br&gt; &lt;a href="http://www.library.ucla.edu/libraries/eastasian" target="_blank"&gt;website&lt;/a&gt;&lt;br&gt; Librarian: &lt;a href="mailto:ctsiang@library.ucla.edu"&gt;Amy Tsiang&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a target="_blank" href="http://www.vam.ac.uk"&gt;http://www.vam.ac.uk&lt;/a&gt;  &lt;a href="mailto:b.mckillop@vam.ac.uk"&gt;Beth McKillop&lt;/a&gt;, Keeper of the Asian Department Victoria and Albert Museum Cromwell Road London, SW7 2RL, UK &lt;a href="http://www.vam.ac.uk" target="_blank"&gt;V&amp;A website</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,17 +1278,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
@@ -1292,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1303,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1312,18 +1316,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -1334,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1345,18 +1349,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1367,18 +1371,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -1387,18 +1391,18 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -1407,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -1416,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -1432,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -1443,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -1452,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -1465,12 +1469,12 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -1486,7 +1490,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>30</v>
@@ -1499,12 +1503,12 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>33</v>
@@ -1514,17 +1518,19 @@
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -1533,7 +1539,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -1542,261 +1548,261 @@
         <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="B45" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B50" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B16" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://www.smb.museum" xr:uid="{26A23BAD-50AC-4692-A7D6-5A73E6114AF9}"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://lib.ihp.sinica.edu.tw" xr:uid="{72B07EBB-E66C-47AD-946E-2D63D0E23C9E}"/>
+    <hyperlink ref="B9" r:id="rId3" display="http://www.bl.uk" xr:uid="{C6AA5CE4-D19E-4247-8764-0403C87B7111}"/>
+    <hyperlink ref="B10" r:id="rId4" display="http://www.britishmuseum.org" xr:uid="{20B71C73-F1A0-4DA2-94FE-0DA3470F35EE}"/>
+    <hyperlink ref="B13" r:id="rId5" display="http://www.cbl.ie" xr:uid="{D1932E3B-3534-41F7-907D-0DF8D24D3BE0}"/>
+    <hyperlink ref="B11" r:id="rId6" display="http://www.bnf.fr" xr:uid="{3EE4A9F1-19BF-41A2-B8FC-F3E3D8BA49F0}"/>
+    <hyperlink ref="B18" r:id="rId7" display="http://www.asia.si.edu" xr:uid="{982F40E9-B701-4EDA-A2E7-F83EA50E18AC}"/>
+    <hyperlink ref="B20" r:id="rId8" display="http://www.hku.hk/hkumag" xr:uid="{ACEC8380-EEB5-48BF-A8DB-3ADB8D23A905}"/>
+    <hyperlink ref="B33" r:id="rId9" display="http://www.nlc.gov.cn/GB/channel1/index.html" xr:uid="{558CD8D1-738B-4DE1-94EB-3EF053B16DFD}"/>
+    <hyperlink ref="B35" r:id="rId10" display="http://www.nri.org.uk" xr:uid="{4C90C029-900E-4684-B25C-F8575BCF9B88}"/>
+    <hyperlink ref="B37" r:id="rId11" display="http://eastasianlib.princeton.edu/index.htm" xr:uid="{C871F2FE-BB7B-4AB6-B205-A6ACB9C6F91E}"/>
+    <hyperlink ref="B38" r:id="rId12" display="http://www.themorgan.org" xr:uid="{CF71DD61-5B39-4402-9A32-2DFFABF5B552}"/>
+    <hyperlink ref="B40" r:id="rId13" display="www.princetonartmuseum.org" xr:uid="{14DA15E4-324B-44C8-BC67-700745762954}"/>
+    <hyperlink ref="B42" r:id="rId14" display="http://opac.lib.ryukoku.ac.jp/web/index.htm" xr:uid="{8412EB14-8A38-4C94-A5BD-6327DA57DB68}"/>
+    <hyperlink ref="B43" r:id="rId15" display="http://www.samfogg.com" xr:uid="{91195932-A20D-48C8-BBBE-F4456FFF5C53}"/>
+    <hyperlink ref="B49" r:id="rId16" display="http://www.library.ucla.edu" xr:uid="{E39F47CB-6E7D-4B7D-8CFE-D568BBA1AFB2}"/>
+    <hyperlink ref="B50" r:id="rId17" display="http://www.vam.ac.uk" xr:uid="{CBD9D6CB-2613-4FD7-8F76-84224254077D}"/>
+    <hyperlink ref="B24" r:id="rId18" display="http://www.kb.dk" xr:uid="{7463BEDC-FFC2-41CE-9686-9CCB91CA87D9}"/>
+    <hyperlink ref="B5" r:id="rId19" display="https://www.artic.edu" xr:uid="{7D4CE23C-DA86-4B3F-8D63-79FE0299D99F}"/>
+    <hyperlink ref="B8" r:id="rId20" display="https://www.bbaw.de" xr:uid="{DE39F9B1-BE61-4277-85CB-93DD42230FBA}"/>
+    <hyperlink ref="B12" r:id="rId21" display="https://www.cincinnatiartmuseum.org" xr:uid="{89CC07AC-9A5F-4938-8BA1-8C127C4188F6}"/>
+    <hyperlink ref="B14" r:id="rId22" display="https://www.fieldmuseum.org" xr:uid="{FE0A1454-4B4D-4533-A3E3-1E02B5DEDED1}"/>
+    <hyperlink ref="B15" r:id="rId23" display="http://en.dha.ac.cn" xr:uid="{42DFA4EE-7FC6-4B48-B6BF-1303D51C5020}"/>
+    <hyperlink ref="B16" r:id="rId24" display="https://dia.org" xr:uid="{F8B86F11-B6F8-4D1B-88D6-E045EC961D17}"/>
+    <hyperlink ref="B19" r:id="rId25" display="http://www.gansumuseum.com" xr:uid="{1EAB27F0-EBFF-41C5-9E8A-9BB219AF888A}"/>
+    <hyperlink ref="B22" r:id="rId26" display="http://www.orientalstudies.ru" xr:uid="{6C4CDB85-7B3E-48F2-A9DC-B0BE2FBAA3F7}"/>
+    <hyperlink ref="B26" r:id="rId27" display="https://konyvtar.mta.hu" xr:uid="{CFC9D618-D771-4AF6-A590-CE60E6ABC5D3}"/>
+    <hyperlink ref="B28" r:id="rId28" display="https://www.lingyinsi.org" xr:uid="{669B3674-99DC-4107-B454-1FCF9E31414B}"/>
+    <hyperlink ref="B29" r:id="rId29" display="https://www.middlebury.edu/museum" xr:uid="{BFB4835E-34A7-4FF4-BA2C-9BCD4FB1512A}"/>
+    <hyperlink ref="B30" r:id="rId30" display="https://www.mfa.org" xr:uid="{78764191-61F2-4F63-A0D1-FB5A8D764EB9}"/>
+    <hyperlink ref="B31" r:id="rId31" display="https://www.guimet.fr" xr:uid="{BA45B076-E433-40FE-BA65-CA239B0BE856}"/>
+    <hyperlink ref="B32" r:id="rId32" display="https://www.miho.jp" xr:uid="{C7D48DFD-0C9A-4205-8367-BB8749A8F080}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://nationalmuseumindia.gov.in" xr:uid="{98AB194E-C90A-450A-8128-B6E770D67AF0}"/>
+    <hyperlink ref="B36" r:id="rId34" display="https://www.bodleian.ox.ac.uk" xr:uid="{88291E41-62CB-4559-A311-F2E13A56E0F7}"/>
+    <hyperlink ref="B39" r:id="rId35" display="https://philamuseum.org" xr:uid="{02389D9E-7BFA-4823-A2E7-F621AF0CFECF}"/>
+    <hyperlink ref="B41" r:id="rId36" display="https://riks.korea.ac.kr" xr:uid="{75C585AE-1CBF-496F-BAC9-1EDBAA6AFBEB}"/>
+    <hyperlink ref="B44" r:id="rId37" display="https://www.hermitagemuseum.org" xr:uid="{C84D4131-7197-4A83-B06C-4D3212E2A74F}"/>
+    <hyperlink ref="B45" r:id="rId38" display="https://www.etnografiskamuseet.se" xr:uid="{157DDD0C-19F9-406C-92C3-F24F63468FAB}"/>
+    <hyperlink ref="B47" r:id="rId39" display="https://www.tjbwg.com" xr:uid="{E73BD098-CC13-4498-9CC1-B850B463D86B}"/>
+    <hyperlink ref="B48" r:id="rId40" display="https://www.ncl.edu.tw" xr:uid="{14390DD4-6E98-4781-9629-6637BE0D7ABE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId41"/>
